--- a/CP data fields to be scraped (1).xlsx
+++ b/CP data fields to be scraped (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anarockpropertyconsultants-my.sharepoint.com/personal/107222_anarock_com/Documents/CP booking use case/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaravanand/Desktop/data_scraping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F1B57B1-B341-4F86-B67A-A9C2C1B1938B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E7AFBC-0A9B-954A-B5A4-F5F38733273B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9EA377E3-8244-40B0-8479-A231BCF4DF29}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{9EA377E3-8244-40B0-8479-A231BCF4DF29}"/>
   </bookViews>
   <sheets>
     <sheet name="RERA Agent Data" sheetId="1" r:id="rId1"/>
@@ -356,7 +356,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,8 +379,15 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,6 +424,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -445,19 +464,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -476,9 +491,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -489,7 +501,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -832,207 +856,207 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.81640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="41.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -1046,182 +1070,182 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9A5677-848F-4F7B-A5F6-37B18F4B900D}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.08984375" style="6" customWidth="1"/>
-    <col min="4" max="5" width="8.7265625" style="6"/>
-    <col min="6" max="6" width="16.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="16.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="8.6640625" style="4"/>
+    <col min="6" max="6" width="16.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="14"/>
+      <c r="F1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="5"/>
+      <c r="G1" s="14"/>
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>53</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="F3" s="8" t="s">
+      <c r="B3" s="6"/>
+      <c r="F3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="6"/>
       <c r="H3"/>
       <c r="I3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="F4" s="8" t="s">
+      <c r="B4" s="6"/>
+      <c r="F4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="6"/>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="F5" s="8" t="s">
+      <c r="B5" s="6"/>
+      <c r="F5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="6"/>
       <c r="I5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="F6" s="9" t="s">
+      <c r="B6" s="6"/>
+      <c r="F6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="6"/>
       <c r="I6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="F7" s="8" t="s">
+      <c r="B7" s="6"/>
+      <c r="F7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="6"/>
       <c r="I7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="F8" s="8" t="s">
+      <c r="B8" s="6"/>
+      <c r="F8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="6"/>
       <c r="I8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="F9" s="8" t="s">
+      <c r="B9" s="6"/>
+      <c r="F9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="6" t="s">
         <v>54</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="6"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="6"/>
       <c r="G11"/>
-      <c r="H11" s="8"/>
+      <c r="H11" s="6"/>
       <c r="I11"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="6"/>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="6"/>
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="6"/>
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>54</v>
       </c>
       <c r="F15"/>
@@ -1229,13 +1253,13 @@
       <c r="H15"/>
       <c r="I15"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
     </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
@@ -1247,6 +1271,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1258,291 +1283,291 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="77.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" customWidth="1"/>
+    <col min="1" max="1" width="77.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="12"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="15"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="11" t="s">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="11" t="s">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="11" t="s">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="11" t="s">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="11" t="s">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="11" t="s">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="11" t="s">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="11" t="s">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="11" t="s">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="11" t="s">
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="11" t="s">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="11" t="s">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="11" t="s">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="11" t="s">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="11" t="s">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="4"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="11" t="s">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="4"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="11" t="s">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="4"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="11" t="s">
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="11" t="s">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="4"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="16" t="s">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="16" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="17"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="16" t="s">
+      <c r="B43" s="16"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="17"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="16" t="s">
+      <c r="B44" s="16"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="17"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="14" t="s">
+      <c r="B45" s="16"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="12" t="s">
         <v>102</v>
       </c>
     </row>
